--- a/bh3/511912036707077214_2021-04-10_12-00-09.xlsx
+++ b/bh3/511912036707077214_2021-04-10_12-00-09.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -544,10 +560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-22 10:58:17</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44308.4571412037</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -616,10 +630,8 @@
           <t>4448234849</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-04-21 23:20:10</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44307.97233796296</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -689,10 +701,8 @@
           <t>4448234689</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-04-21 23:20:05</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44307.9722800926</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -762,10 +772,8 @@
           <t>4448237824</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-04-21 23:20:00</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44307.97222222222</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -835,10 +843,8 @@
           <t>4448240163</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-04-21 23:19:48</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44307.97208333333</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -908,10 +914,8 @@
           <t>4448233912</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-04-21 23:19:40</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44307.97199074074</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -980,10 +984,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-04-21 06:06:39</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44307.25461805556</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1057,10 +1059,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-04-19 00:33:05</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44305.02297453704</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1136,10 +1136,8 @@
           <t>4392396346</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-04-18 10:38:08</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44304.44314814815</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1214,10 +1212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:18:52</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44302.76310185185</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1294,10 +1290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-04-16 12:07:30</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44302.50520833334</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1365,10 +1359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-04-16 06:17:27</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44302.26211805556</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1436,10 +1428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-04-15 22:35:01</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44301.9409837963</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1507,10 +1497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-04-15 13:09:52</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44301.54851851852</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1577,10 +1565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-04-15 01:50:46</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44301.0769212963</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1656,10 +1642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-04-15 01:31:53</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44301.06380787037</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1723,10 +1707,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-04-15 00:45:41</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44301.03172453704</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1798,10 +1780,8 @@
           <t>4414283078</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-04-14 22:12:46</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44300.9255324074</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1874,10 +1854,8 @@
           <t>4414282737</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-04-14 22:12:36</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44300.92541666667</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1950,10 +1928,8 @@
           <t>4414278894</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-04-14 22:12:30</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44300.92534722222</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2026,10 +2002,8 @@
           <t>4414278736</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-04-14 22:12:25</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44300.92528935185</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2102,10 +2076,8 @@
           <t>4414278562</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-04-14 22:12:19</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44300.92521990741</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2178,10 +2150,8 @@
           <t>4414281948</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-04-14 22:12:12</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44300.92513888889</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2254,10 +2224,8 @@
           <t>4414274663</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-04-14 22:12:06</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44300.92506944444</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2330,10 +2298,8 @@
           <t>4414281553</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-04-14 22:12:00</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44300.925</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2406,10 +2372,8 @@
           <t>4414274320</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-04-14 22:11:55</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44300.92494212963</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2482,10 +2446,8 @@
           <t>4414274165</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-04-14 22:11:50</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44300.92488425926</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2554,10 +2516,8 @@
           <t>4392980453</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-04-14 17:56:30</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44300.74756944444</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2621,10 +2581,8 @@
           <t>4413004596</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-04-14 17:54:54</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44300.74645833333</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2700,10 +2658,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-04-14 14:10:47</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44300.59082175926</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2781,10 +2737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-04-14 07:30:07</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44300.31258101852</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2853,10 +2807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-04-14 02:04:07</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44300.08619212963</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2920,10 +2872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-04-13 22:59:25</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44299.95792824074</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2991,10 +2941,8 @@
           <t>4392384064</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-04-13 18:57:21</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44299.78982638889</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3062,10 +3010,8 @@
           <t>4392384064</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-04-13 17:46:22</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44299.74053240741</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3142,10 +3088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-04-13 07:55:44</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44299.33037037037</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3205,10 +3149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-04-12 23:44:20</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44298.98912037037</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3285,10 +3227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-04-12 23:13:26</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44298.96766203704</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3352,10 +3292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-04-12 23:12:41</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44298.96714120371</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3428,10 +3366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-04-12 23:05:27</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44298.96211805556</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3496,10 +3432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-04-12 20:06:38</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44298.83793981482</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3570,10 +3504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-04-12 19:22:10</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44298.80706018519</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3641,10 +3573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-04-12 10:12:32</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44298.42537037037</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3716,10 +3646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-04-12 02:49:42</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44298.11784722222</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3787,10 +3715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-04-12 01:32:47</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44298.06443287037</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3863,10 +3789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-04-12 00:51:04</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44298.03546296297</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -3946,10 +3870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-04-12 00:51:00</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44298.03541666667</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -4029,10 +3951,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-04-12 00:50:54</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44298.03534722222</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
@@ -4115,10 +4035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-04-11 23:27:01</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44297.97709490741</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
@@ -4178,10 +4096,8 @@
           <t>4392384064</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-04-11 23:11:26</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44297.96627314815</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4272,10 +4188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-04-11 21:21:09</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44297.8896875</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4351,10 +4265,8 @@
           <t>4392923639</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-04-11 20:33:03</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44297.85628472222</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4422,10 +4334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-04-11 20:22:06</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44297.84868055556</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4490,10 +4400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-04-11 18:57:24</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44297.78986111111</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4565,10 +4473,8 @@
           <t>4392980453</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-04-11 18:53:30</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44297.78715277778</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4638,10 +4544,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-04-11 17:57:00</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44297.74791666667</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4709,10 +4613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-04-11 15:46:47</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44297.65748842592</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4783,10 +4685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-04-11 15:46:43</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44297.65744212963</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4850,10 +4750,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-04-11 15:46:38</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44297.65738425926</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4920,10 +4818,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-04-11 15:46:34</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44297.65733796296</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4987,10 +4883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-04-11 15:46:30</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44297.65729166667</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5055,10 +4949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-04-11 15:46:27</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44297.65725694445</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5131,10 +5023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-04-11 15:46:23</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44297.65721064815</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5202,10 +5092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-04-11 15:46:19</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44297.65716435185</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5269,10 +5157,8 @@
           <t>4398061270</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-04-11 14:16:45</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44297.59496527778</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5347,10 +5233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-04-11 14:14:55</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44297.59369212963</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5419,10 +5303,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-04-11 12:58:07</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44297.54035879629</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5483,10 +5365,8 @@
           <t>4397671047</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-04-11 12:57:10</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44297.53969907408</v>
       </c>
       <c r="I69" t="n">
         <v>2</v>
@@ -5567,10 +5447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-04-11 12:19:02</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44297.51321759259</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5634,10 +5512,8 @@
           <t>4392396346</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-04-11 10:46:45</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44297.44913194444</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5701,10 +5577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-04-11 10:03:36</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44297.41916666667</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5780,10 +5654,8 @@
           <t>4392410664</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-04-11 09:30:58</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44297.39650462963</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5855,10 +5727,8 @@
           <t>4392410664</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-04-11 09:22:58</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44297.39094907408</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5930,10 +5800,8 @@
           <t>4392410664</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-04-11 09:17:48</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44297.38736111111</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6005,10 +5873,8 @@
           <t>4392410664</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-04-11 09:17:35</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44297.38721064815</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6084,10 +5950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-04-11 09:07:26</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44297.38016203704</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6157,10 +6021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-04-11 09:07:13</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44297.38001157407</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6224,10 +6086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-04-11 09:07:08</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44297.3799537037</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6291,10 +6151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-04-11 09:07:03</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44297.37989583334</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6358,10 +6216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-04-11 09:06:59</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44297.37984953704</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6426,10 +6282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-04-11 09:06:54</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44297.37979166667</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6500,10 +6354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-04-11 09:06:50</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44297.37974537037</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6576,10 +6428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-04-11 09:06:46</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44297.37969907407</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6647,10 +6497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-04-11 09:06:41</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44297.3796412037</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6716,10 +6564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-04-11 07:58:18</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44297.33215277778</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6783,10 +6629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-04-11 07:58:05</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44297.33200231481</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6850,10 +6694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-04-11 07:05:22</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44297.29539351852</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6925,10 +6767,8 @@
           <t>4392396346</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-04-11 06:53:14</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44297.28696759259</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6996,10 +6836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-04-11 05:01:10</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44297.20914351852</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7067,10 +6905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-04-11 01:25:52</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44297.05962962963</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7149,10 +6985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-04-11 00:47:46</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44297.03317129629</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7220,10 +7054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-04-11 00:27:34</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44297.01914351852</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7303,10 +7135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-04-11 00:24:24</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44297.01694444445</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7389,10 +7219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-04-11 00:09:57</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44297.00690972222</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7470,10 +7298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-04-10 23:22:33</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44296.97399305556</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7537,10 +7363,8 @@
           <t>4394837883</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-04-10 22:04:23</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44296.91971064815</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7620,10 +7444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-04-10 21:59:32</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44296.91634259259</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7683,10 +7505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-04-10 20:55:03</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44296.8715625</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7750,10 +7570,8 @@
           <t>4391878050</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-04-10 20:31:57</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44296.85552083333</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7825,10 +7643,8 @@
           <t>4391878050</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-04-10 20:24:23</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44296.85026620371</v>
       </c>
       <c r="I101" t="n">
         <v>2</v>
@@ -7896,10 +7712,8 @@
           <t>4394042912</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-04-10 19:42:47</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44296.82137731482</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7971,10 +7785,8 @@
           <t>4392980453</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-04-10 19:37:11</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44296.81748842593</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8050,10 +7862,8 @@
           <t>4392980453</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-04-10 19:35:56</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44296.81662037037</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8117,10 +7927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-04-10 19:21:40</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44296.80671296296</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8188,10 +7996,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-04-10 19:18:02</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44296.80418981481</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8259,10 +8065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-04-10 19:09:06</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44296.79798611111</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8334,10 +8138,8 @@
           <t>4393002113</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-04-10 18:58:13</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44296.79042824074</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8401,10 +8203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-04-10 18:45:40</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44296.78171296296</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8473,10 +8273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-04-10 18:41:50</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44296.77905092593</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8540,10 +8338,8 @@
           <t>4393698028</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-04-10 18:39:19</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44296.77730324074</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8619,10 +8415,8 @@
           <t>4393689318</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-04-10 18:38:05</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44296.77644675926</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8698,10 +8492,8 @@
           <t>4392396346</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-04-10 18:37:20</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44296.77592592593</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8765,10 +8557,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-04-10 18:31:29</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44296.77186342593</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8832,10 +8622,8 @@
           <t>4392980453</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-04-10 18:30:46</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44296.77136574074</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8907,10 +8695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-04-10 18:25:21</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44296.76760416666</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8988,10 +8774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-04-10 18:20:19</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44296.7641087963</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9060,10 +8844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-04-10 18:10:30</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44296.75729166667</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9139,10 +8921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-04-10 18:07:03</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44296.75489583334</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9214,10 +8994,8 @@
           <t>4392906464</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-04-10 17:55:29</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44296.74686342593</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9289,10 +9067,8 @@
           <t>4392906464</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-04-10 17:49:21</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44296.74260416667</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9364,10 +9140,8 @@
           <t>4393392951</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-04-10 17:43:07</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44296.73827546297</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9435,10 +9209,8 @@
           <t>4392980453</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-04-10 17:42:01</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44296.73751157407</v>
       </c>
       <c r="I123" t="n">
         <v>2</v>
@@ -9510,10 +9282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-04-10 17:41:11</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44296.73693287037</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9586,10 +9356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-04-10 17:40:09</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44296.73621527778</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9653,10 +9421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-04-10 17:40:02</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44296.73613425926</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9721,10 +9487,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-04-10 17:39:54</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44296.73604166666</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9788,10 +9552,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-04-10 17:39:46</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44296.73594907407</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9855,10 +9617,8 @@
           <t>4392906464</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-04-10 17:36:10</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44296.73344907408</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9930,10 +9690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-04-10 17:31:17</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44296.73005787037</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9997,10 +9755,8 @@
           <t>4392396346</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-04-10 17:28:11</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44296.72790509259</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10068,10 +9824,8 @@
           <t>4392396346</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-04-10 17:23:43</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44296.72480324074</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10138,10 +9892,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-04-10 17:08:03</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44296.71392361111</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10201,10 +9953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-04-10 17:04:59</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44296.71179398148</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10268,10 +10018,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-04-10 17:03:42</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44296.71090277778</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10347,10 +10095,8 @@
           <t>4393184601</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-04-10 17:00:15</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44296.70850694444</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10422,10 +10168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:58:25</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44296.7072337963</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10493,10 +10237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:58:21</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44296.7071875</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10565,10 +10307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:58:15</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44296.70711805556</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10645,10 +10385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:58:06</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44296.70701388889</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10723,10 +10461,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:58:01</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44296.70695601852</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10794,10 +10530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:57:55</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44296.70688657407</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10865,10 +10599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:57:51</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44296.70684027778</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10937,10 +10669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:57:47</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44296.70679398148</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11008,10 +10738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:57:46</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44296.7067824074</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11079,10 +10807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:57:42</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44296.70673611111</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11150,10 +10876,8 @@
           <t>4393178173</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:57:20</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44296.70648148148</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11230,10 +10954,8 @@
           <t>4393174504</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:57:13</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44296.70640046296</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11308,10 +11030,8 @@
           <t>4393169963</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:57:08</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44296.7063425926</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11379,10 +11099,8 @@
           <t>4393169858</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:57:04</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44296.7062962963</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11450,10 +11168,8 @@
           <t>4393174079</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:56:55</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44296.70619212963</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11522,10 +11238,8 @@
           <t>4393177222</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:56:43</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44296.70605324074</v>
       </c>
       <c r="I152" t="n">
         <v>5</v>
@@ -11593,10 +11307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:51:26</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44296.70238425926</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11672,10 +11384,8 @@
           <t>4393149150</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:51:06</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44296.70215277778</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11751,10 +11461,8 @@
           <t>4393059590</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:30:36</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44296.68791666667</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11826,10 +11534,8 @@
           <t>4392396346</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:28:10</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44296.68622685185</v>
       </c>
       <c r="I156" t="n">
         <v>3</v>
@@ -11897,10 +11603,8 @@
           <t>4392980453</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:22:30</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44296.68229166666</v>
       </c>
       <c r="I157" t="n">
         <v>2</v>
@@ -11976,10 +11680,8 @@
           <t>4393002113</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:16:44</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44296.67828703704</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12047,10 +11749,8 @@
           <t>4392980453</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:15:20</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44296.67731481481</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12118,10 +11818,8 @@
           <t>4392980453</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:11:43</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44296.67480324074</v>
       </c>
       <c r="I160" t="n">
         <v>6</v>
@@ -12185,10 +11883,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:10:28</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44296.67393518519</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12256,10 +11952,8 @@
           <t>4392980453</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:09:37</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44296.67334490741</v>
       </c>
       <c r="I162" t="n">
         <v>4</v>
@@ -12335,10 +12029,8 @@
           <t>4391891054</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:08:41</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44296.67269675926</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12412,10 +12104,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:04:36</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44296.66986111111</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12487,10 +12177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-04-10 16:01:27</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44296.66767361111</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12566,10 +12254,8 @@
           <t>4392923639</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-04-10 15:57:20</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44296.66481481482</v>
       </c>
       <c r="I166" t="n">
         <v>5</v>
@@ -12637,10 +12323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-04-10 15:51:59</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44296.66109953704</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12712,10 +12396,8 @@
           <t>4392906464</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-04-10 15:51:55</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44296.66105324074</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12787,10 +12469,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-04-10 15:48:59</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44296.6590162037</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12866,10 +12546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-04-10 15:46:37</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44296.65737268519</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12941,10 +12619,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-04-10 15:44:45</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44296.65607638889</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13008,10 +12684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-04-10 15:28:50</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44296.64502314815</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13079,10 +12753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-04-10 15:25:01</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44296.64237268519</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13154,10 +12826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-04-10 15:21:49</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44296.64015046296</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13227,10 +12897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-04-10 15:17:44</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44296.63731481481</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13298,10 +12966,8 @@
           <t>4392763517</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-04-10 15:17:18</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44296.63701388889</v>
       </c>
       <c r="I176" t="n">
         <v>2</v>
@@ -13383,10 +13049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-04-10 15:15:22</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44296.6356712963</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13454,10 +13118,8 @@
           <t>4391888676</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-04-10 15:05:50</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44296.62905092593</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13525,10 +13187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-04-10 15:02:43</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44296.62688657407</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13604,10 +13264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:58:57</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44296.62427083333</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13679,10 +13337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:49:31</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44296.61771990741</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13758,10 +13414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:48:24</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44296.61694444445</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13825,10 +13479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:47:20</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44296.61620370371</v>
       </c>
       <c r="I183" t="n">
         <v>1</v>
@@ -13904,10 +13556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:46:22</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44296.61553240741</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13971,10 +13621,8 @@
           <t>4392628725</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:42:02</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44296.61252314815</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14038,10 +13686,8 @@
           <t>4392626062</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:40:01</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44296.61112268519</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14105,10 +13751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:36:12</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44296.60847222222</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14176,10 +13820,8 @@
           <t>4392593250</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:32:55</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44296.60619212963</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14247,10 +13889,8 @@
           <t>4392065970</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:31:37</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44296.60528935185</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14326,10 +13966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:31:03</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44296.60489583333</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14405,10 +14043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:29:31</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44296.60383101852</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14480,10 +14116,8 @@
           <t>4392574168</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:28:23</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44296.60304398148</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14551,10 +14185,8 @@
           <t>4392576601</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:27:59</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44296.6027662037</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14630,10 +14262,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:27:05</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44296.6021412037</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14709,10 +14339,8 @@
           <t>4392563941</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:26:01</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44296.60140046296</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14794,10 +14422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:24:48</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44296.60055555555</v>
       </c>
       <c r="I196" t="n">
         <v>1</v>
@@ -14865,10 +14491,8 @@
           <t>4392556948</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:23:06</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44296.599375</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14932,10 +14556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:21:45</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44296.5984375</v>
       </c>
       <c r="I198" t="n">
         <v>4</v>
@@ -15007,10 +14629,8 @@
           <t>4392540471</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:18:28</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44296.59615740741</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15074,10 +14694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:18:22</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44296.59608796296</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -15149,10 +14767,8 @@
           <t>4392491239</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:15:19</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44296.59396990741</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15224,10 +14840,8 @@
           <t>4392505093</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:10:00</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44296.59027777778</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15291,10 +14905,8 @@
           <t>4392491239</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:07:18</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44296.58840277778</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15370,10 +14982,8 @@
           <t>4392490647</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:06:52</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44296.58810185185</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15437,10 +15047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:06:38</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44296.58793981482</v>
       </c>
       <c r="I205" t="n">
         <v>40</v>
@@ -15504,10 +15112,8 @@
           <t>4392477272</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:04:28</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44296.58643518519</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15575,10 +15181,8 @@
           <t>4392463920</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:02:05</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44296.58478009259</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15646,10 +15250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-04-10 14:01:00</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44296.58402777778</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15717,10 +15319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:59:20</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44296.58287037037</v>
       </c>
       <c r="I209" t="n">
         <v>12</v>
@@ -15784,10 +15384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:55:46</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44296.58039351852</v>
       </c>
       <c r="I210" t="n">
         <v>2</v>
@@ -15855,10 +15453,8 @@
           <t>4392056554</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:55:33</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44296.58024305556</v>
       </c>
       <c r="I211" t="n">
         <v>3</v>
@@ -15922,10 +15518,8 @@
           <t>4392434397</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:55:25</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44296.58015046296</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16002,10 +15596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:53:54</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44296.57909722222</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16077,10 +15669,8 @@
           <t>4391921867</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:52:49</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44296.57834490741</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16148,10 +15738,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:52:15</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44296.57795138889</v>
       </c>
       <c r="I215" t="n">
         <v>309</v>
@@ -16215,10 +15803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:52:11</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44296.57790509259</v>
       </c>
       <c r="I216" t="n">
         <v>5</v>
@@ -16282,10 +15868,8 @@
           <t>4392419554</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:52:02</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44296.57780092592</v>
       </c>
       <c r="I217" t="n">
         <v>2</v>
@@ -16349,10 +15933,8 @@
           <t>4392422880</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:52:00</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44296.57777777778</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16424,10 +16006,8 @@
           <t>4392410664</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:48:33</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44296.57538194444</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16514,10 +16094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:48:07</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44296.57508101852</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16577,10 +16155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:46:33</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44296.57399305556</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16648,10 +16224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:46:02</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44296.57363425926</v>
       </c>
       <c r="I222" t="n">
         <v>5</v>
@@ -16736,10 +16310,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:45:46</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44296.57344907407</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16803,10 +16375,8 @@
           <t>4392396346</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:45:41</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44296.5733912037</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16870,10 +16440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:45:38</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44296.57335648148</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16941,10 +16509,8 @@
           <t>4391916035</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:45:32</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44296.57328703703</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17008,10 +16574,8 @@
           <t>4392395385</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:45:04</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44296.57296296296</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17083,10 +16647,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:44:22</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44296.57247685185</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17154,10 +16716,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:44:20</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44296.5724537037</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17225,10 +16785,8 @@
           <t>4392384064</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:44:11</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44296.57234953704</v>
       </c>
       <c r="I230" t="n">
         <v>2</v>
@@ -17296,10 +16854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:43:27</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44296.57184027778</v>
       </c>
       <c r="I231" t="n">
         <v>155</v>
@@ -17371,10 +16927,8 @@
           <t>4391916035</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:41:08</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44296.57023148148</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17450,10 +17004,8 @@
           <t>4392372442</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:40:32</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44296.56981481481</v>
       </c>
       <c r="I233" t="n">
         <v>2</v>
@@ -17529,10 +17081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:36:22</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44296.5669212963</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17608,10 +17158,8 @@
           <t>4392348406</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:35:51</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44296.5665625</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17687,10 +17235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:35:43</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44296.5664699074</v>
       </c>
       <c r="I236" t="n">
         <v>2</v>
@@ -17766,10 +17312,8 @@
           <t>4392347501</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:35:14</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44296.56613425926</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17845,10 +17389,8 @@
           <t>4392343980</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:34:59</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44296.56596064815</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17916,10 +17458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:34:38</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44296.5657175926</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17991,10 +17531,8 @@
           <t>4392346199</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:34:24</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44296.56555555556</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18062,10 +17600,8 @@
           <t>4392338182</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:33:41</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44296.56505787037</v>
       </c>
       <c r="I241" t="n">
         <v>9</v>
@@ -18143,10 +17679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:33:31</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44296.56494212963</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18210,10 +17744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:33:25</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44296.56487268519</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18277,10 +17809,8 @@
           <t>4392340878</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:32:55</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44296.56452546296</v>
       </c>
       <c r="I244" t="n">
         <v>2</v>
@@ -18344,10 +17874,8 @@
           <t>4392058486</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:31:45</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44296.56371527778</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18416,10 +17944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:31:37</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44296.56362268519</v>
       </c>
       <c r="I246" t="n">
         <v>2</v>
@@ -18483,10 +18009,8 @@
           <t>4391921867</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:31:15</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44296.56336805555</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18562,10 +18086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:28:49</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44296.56167824074</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18637,10 +18159,8 @@
           <t>4392222610</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:28:48</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44296.56166666667</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18708,10 +18228,8 @@
           <t>4391916035</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:27:54</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44296.56104166667</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18775,10 +18293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:27:49</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44296.5609837963</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18846,10 +18362,8 @@
           <t>4392264962</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:25:06</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44296.55909722222</v>
       </c>
       <c r="I252" t="n">
         <v>2</v>
@@ -18913,10 +18427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:24:36</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44296.55875</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18984,10 +18496,8 @@
           <t>4392291614</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:23:21</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44296.55788194444</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19051,10 +18561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:22:13</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44296.55709490741</v>
       </c>
       <c r="I255" t="n">
         <v>54</v>
@@ -19122,10 +18630,8 @@
           <t>4392283131</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:21:35</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44296.55665509259</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19189,10 +18695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:20:53</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44296.55616898148</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19268,10 +18772,8 @@
           <t>4392264962</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:19:18</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44296.55506944445</v>
       </c>
       <c r="I258" t="n">
         <v>2</v>
@@ -19335,10 +18837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:18:21</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44296.55440972222</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19406,10 +18906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:16:36</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44296.55319444444</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19485,10 +18983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:15:39</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44296.55253472222</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19566,10 +19062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:14:59</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44296.55207175926</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19641,10 +19135,8 @@
           <t>4392221851</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:14:44</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44296.55189814815</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19717,10 +19209,8 @@
           <t>4392056554</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:13:50</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44296.55127314815</v>
       </c>
       <c r="I264" t="n">
         <v>2</v>
@@ -19788,10 +19278,8 @@
           <t>4392058486</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:13:34</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44296.55108796297</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19872,10 +19360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:13:29</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44296.5510300926</v>
       </c>
       <c r="I266" t="n">
         <v>67</v>
@@ -19947,10 +19433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:13:22</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44296.55094907407</v>
       </c>
       <c r="I267" t="n">
         <v>13</v>
@@ -20022,10 +19506,8 @@
           <t>4392223364</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:12:20</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44296.55023148148</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20100,10 +19582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:12:11</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44296.55012731482</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20163,10 +19643,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:11:54</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44296.54993055556</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20238,10 +19716,8 @@
           <t>4392056554</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:11:35</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44296.54971064815</v>
       </c>
       <c r="I271" t="n">
         <v>2</v>
@@ -20310,10 +19786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:11:27</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44296.54961805556</v>
       </c>
       <c r="I272" t="n">
         <v>42</v>
@@ -20385,10 +19859,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:10:45</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44296.54913194444</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20456,10 +19928,8 @@
           <t>4392222610</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:10:27</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44296.54892361111</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20532,10 +20002,8 @@
           <t>4392221851</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:10:05</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44296.54866898148</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20608,10 +20076,8 @@
           <t>4392223364</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:09:31</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44296.54827546296</v>
       </c>
       <c r="I276" t="n">
         <v>2</v>
@@ -20679,10 +20145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:09:26</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44296.54821759259</v>
       </c>
       <c r="I277" t="n">
         <v>1</v>
@@ -20750,10 +20214,8 @@
           <t>4392222610</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:09:04</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44296.54796296296</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20821,10 +20283,8 @@
           <t>4392202753</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:08:56</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44296.54787037037</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20897,10 +20357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:08:48</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44296.54777777778</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -20972,10 +20430,8 @@
           <t>4392221851</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:08:37</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44296.54765046296</v>
       </c>
       <c r="I281" t="n">
         <v>2</v>
@@ -21051,10 +20507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:08:13</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44296.54737268519</v>
       </c>
       <c r="I282" t="n">
         <v>7</v>
@@ -21131,10 +20585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:07:08</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44296.54662037037</v>
       </c>
       <c r="I283" t="n">
         <v>5</v>
@@ -21194,10 +20646,8 @@
           <t>4392203687</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:06:45</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44296.54635416667</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21269,10 +20719,8 @@
           <t>4392208509</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:06:43</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44296.54633101852</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21332,10 +20780,8 @@
           <t>4392202753</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:06:12</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44296.54597222222</v>
       </c>
       <c r="I286" t="n">
         <v>2</v>
@@ -21403,10 +20849,8 @@
           <t>4392199460</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:06:03</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44296.54586805555</v>
       </c>
       <c r="I287" t="n">
         <v>2</v>
@@ -21478,10 +20922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:04:20</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44296.54467592593</v>
       </c>
       <c r="I288" t="n">
         <v>60</v>
@@ -21557,10 +20999,8 @@
           <t>4392196212</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:04:10</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44296.54456018518</v>
       </c>
       <c r="I289" t="n">
         <v>3</v>
@@ -21630,10 +21070,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:04:07</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44296.54452546296</v>
       </c>
       <c r="I290" t="n">
         <v>133</v>
@@ -21709,10 +21147,8 @@
           <t>4392188837</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:03:55</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44296.54438657407</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21790,10 +21226,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:03:51</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44296.54434027777</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21861,10 +21295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:03:44</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44296.54425925926</v>
       </c>
       <c r="I293" t="n">
         <v>7</v>
@@ -21932,10 +21364,8 @@
           <t>4392187873</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:03:22</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44296.54400462963</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -22011,10 +21441,8 @@
           <t>4391950046</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:03:02</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44296.54377314815</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22078,10 +21506,8 @@
           <t>4392191531</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:02:48</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44296.54361111111</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -22158,10 +21584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:02:31</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44296.54341435185</v>
       </c>
       <c r="I297" t="n">
         <v>2</v>
@@ -22225,10 +21649,8 @@
           <t>4391921867</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:02:19</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44296.54327546297</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22300,10 +21722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:02:14</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44296.5432175926</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22375,10 +21795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:01:56</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44296.54300925926</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22446,10 +21864,8 @@
           <t>4392182280</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:01:56</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44296.54300925926</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22517,10 +21933,8 @@
           <t>4392172202</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-04-10 13:00:09</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44296.54177083333</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22592,10 +22006,8 @@
           <t>4392058486</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:59:54</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44296.54159722223</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22659,10 +22071,8 @@
           <t>4392071646</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:59:10</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44296.54108796296</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22734,10 +22144,8 @@
           <t>4391921867</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:59:07</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44296.54105324074</v>
       </c>
       <c r="I305" t="n">
         <v>2</v>
@@ -22806,10 +22214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:58:38</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44296.54071759259</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22881,10 +22287,8 @@
           <t>4392164164</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:58:37</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44296.54070601852</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22960,10 +22364,8 @@
           <t>4392098567</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:57:59</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44296.5402662037</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23039,10 +22441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:57:57</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44296.54024305556</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23118,10 +22518,8 @@
           <t>4392154960</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:57:48</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44296.54013888889</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23197,10 +22595,8 @@
           <t>4391921867</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:57:26</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44296.53988425926</v>
       </c>
       <c r="I311" t="n">
         <v>1</v>
@@ -23264,10 +22660,8 @@
           <t>4392157494</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:57:25</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44296.53987268519</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23327,10 +22721,8 @@
           <t>4392161704</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:57:14</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44296.53974537037</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23406,10 +22798,8 @@
           <t>4392071646</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:57:11</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44296.53971064815</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23477,10 +22867,8 @@
           <t>4392048539</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:57:04</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44296.53962962963</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23556,10 +22944,8 @@
           <t>4392099510</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:56:36</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44296.53930555555</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23635,10 +23021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:56:12</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44296.53902777778</v>
       </c>
       <c r="I317" t="n">
         <v>4</v>
@@ -23706,10 +23090,8 @@
           <t>4392119333</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:56:12</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44296.53902777778</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23785,10 +23167,8 @@
           <t>4392144869</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:55:53</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44296.53880787037</v>
       </c>
       <c r="I319" t="n">
         <v>1</v>
@@ -23856,10 +23236,8 @@
           <t>4392071646</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:55:35</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44296.53859953704</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23931,10 +23309,8 @@
           <t>4392148563</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:55:27</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44296.53850694445</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23994,10 +23370,8 @@
           <t>4391921867</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:54:35</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44296.53790509259</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24065,10 +23439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:53:42</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44296.53729166667</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24144,10 +23516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:53:40</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44296.53726851852</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24215,10 +23585,8 @@
           <t>4392098567</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:53:34</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44296.53719907408</v>
       </c>
       <c r="I325" t="n">
         <v>1</v>
@@ -24290,10 +23658,8 @@
           <t>4392134643</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:53:16</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44296.53699074074</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24365,10 +23731,8 @@
           <t>4392039224</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:53:07</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44296.53688657407</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24436,10 +23800,8 @@
           <t>4392059699</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:52:23</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44296.53637731481</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24503,10 +23865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:52:11</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44296.53623842593</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24582,10 +23942,8 @@
           <t>4392098567</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:52:06</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44296.53618055556</v>
       </c>
       <c r="I330" t="n">
         <v>3</v>
@@ -24653,10 +24011,8 @@
           <t>4391950046</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:51:26</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44296.53571759259</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24724,10 +24080,8 @@
           <t>4391878771</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:51:25</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44296.53570601852</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24813,10 +24167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:51:24</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44296.53569444444</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24885,10 +24237,8 @@
           <t>4392131209</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:51:16</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44296.53560185185</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24964,10 +24314,8 @@
           <t>4392056554</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:50:59</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44296.5354050926</v>
       </c>
       <c r="I335" t="n">
         <v>3</v>
@@ -25043,10 +24391,8 @@
           <t>4392125847</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:50:39</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44296.53517361111</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25110,10 +24456,8 @@
           <t>4392097619</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:50:16</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44296.5349074074</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25181,10 +24525,8 @@
           <t>4392119333</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:50:15</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44296.53489583333</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25260,10 +24602,8 @@
           <t>4392098567</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:50:08</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44296.53481481481</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25339,10 +24679,8 @@
           <t>4392118085</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:49:34</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44296.5344212963</v>
       </c>
       <c r="I340" t="n">
         <v>1</v>
@@ -25418,10 +24756,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:48:52</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44296.53393518519</v>
       </c>
       <c r="I341" t="n">
         <v>104</v>
@@ -25505,10 +24841,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:48:44</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44296.53384259259</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25595,10 +24929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:48:18</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44296.53354166666</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25673,10 +25005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:48:13</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44296.53348379629</v>
       </c>
       <c r="I344" t="n">
         <v>83</v>
@@ -25758,10 +25088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:48:06</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44296.53340277778</v>
       </c>
       <c r="I345" t="n">
         <v>15</v>
@@ -25834,10 +25162,8 @@
           <t>4391982835</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:47:52</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44296.53324074074</v>
       </c>
       <c r="I346" t="n">
         <v>1</v>
@@ -25913,10 +25239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:47:12</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44296.53277777778</v>
       </c>
       <c r="I347" t="n">
         <v>17</v>
@@ -25984,10 +25308,8 @@
           <t>4392103813</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:47:09</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44296.53274305556</v>
       </c>
       <c r="I348" t="n">
         <v>2</v>
@@ -26063,10 +25385,8 @@
           <t>4392099510</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:47:02</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44296.53266203704</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26126,10 +25446,8 @@
           <t>4392098567</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:46:31</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44296.53230324074</v>
       </c>
       <c r="I350" t="n">
         <v>9</v>
@@ -26197,10 +25515,8 @@
           <t>4392098048</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:46:14</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44296.53210648148</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26268,10 +25584,8 @@
           <t>4392093972</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:46:05</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44296.53200231482</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26347,10 +25661,8 @@
           <t>4392097666</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:46:02</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44296.53196759259</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -26426,10 +25738,8 @@
           <t>4392097619</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:46:00</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44296.53194444445</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26501,10 +25811,8 @@
           <t>4392088975</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:45:59</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44296.53193287037</v>
       </c>
       <c r="I355" t="n">
         <v>2</v>
@@ -26580,10 +25888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:45:53</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44296.53186342592</v>
       </c>
       <c r="I356" t="n">
         <v>1</v>
@@ -26651,10 +25957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:45:43</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44296.53174768519</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26722,10 +26026,8 @@
           <t>4391921867</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:45:22</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44296.53150462963</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26797,10 +26099,8 @@
           <t>4391995931</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:45:21</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44296.53149305555</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26876,10 +26176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:45:05</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44296.53130787037</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26947,10 +26245,8 @@
           <t>4392084951</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:44:32</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44296.53092592592</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -27014,10 +26310,8 @@
           <t>4392088975</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:44:30</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44296.53090277778</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -27093,10 +26387,8 @@
           <t>4392084563</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:44:19</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44296.53077546296</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -27172,10 +26464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:44:11</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44296.53068287037</v>
       </c>
       <c r="I364" t="n">
         <v>8</v>
@@ -27245,10 +26535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:43:06</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44296.52993055555</v>
       </c>
       <c r="I365" t="n">
         <v>1</v>
@@ -27320,10 +26608,8 @@
           <t>4392082352</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:43:03</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44296.52989583334</v>
       </c>
       <c r="I366" t="n">
         <v>3</v>
@@ -27391,10 +26677,8 @@
           <t>4392085682</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:42:41</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44296.52964120371</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27454,10 +26738,8 @@
           <t>4392064359</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:42:08</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44296.52925925926</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27529,10 +26811,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:42:00</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44296.52916666667</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27596,10 +26876,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:41:51</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44296.5290625</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27667,10 +26945,8 @@
           <t>4392073314</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:41:22</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44296.52872685185</v>
       </c>
       <c r="I371" t="n">
         <v>2</v>
@@ -27730,10 +27006,8 @@
           <t>4392075034</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:41:13</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44296.52862268518</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27809,10 +27083,8 @@
           <t>4392064791</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:41:05</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44296.52853009259</v>
       </c>
       <c r="I373" t="n">
         <v>1</v>
@@ -27876,10 +27148,8 @@
           <t>4392064663</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:41:01</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44296.5284837963</v>
       </c>
       <c r="I374" t="n">
         <v>1</v>
@@ -27947,10 +27217,8 @@
           <t>4392064359</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:40:51</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44296.52836805556</v>
       </c>
       <c r="I375" t="n">
         <v>1</v>
@@ -28022,10 +27290,8 @@
           <t>4391924306</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:40:44</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44296.52828703704</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -28097,10 +27363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:40:36</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44296.52819444444</v>
       </c>
       <c r="I377" t="n">
         <v>3</v>
@@ -28160,10 +27424,8 @@
           <t>4392071646</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:40:28</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44296.52810185185</v>
       </c>
       <c r="I378" t="n">
         <v>9</v>
@@ -28231,10 +27493,8 @@
           <t>4392067618</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:40:24</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44296.52805555556</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -28302,10 +27562,8 @@
           <t>4392071509</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:40:23</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44296.52804398148</v>
       </c>
       <c r="I380" t="n">
         <v>2</v>
@@ -28377,10 +27635,8 @@
           <t>4391968485</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:40:21</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44296.52802083334</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28452,10 +27708,8 @@
           <t>4392066901</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:39:59</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44296.5277662037</v>
       </c>
       <c r="I382" t="n">
         <v>1</v>
@@ -28546,10 +27800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:39:32</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44296.5274537037</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28617,10 +27869,8 @@
           <t>4392066011</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:39:29</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44296.52741898148</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28684,10 +27934,8 @@
           <t>4392065970</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:39:27</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44296.52739583333</v>
       </c>
       <c r="I385" t="n">
         <v>8</v>
@@ -28751,10 +27999,8 @@
           <t>4392059699</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:39:23</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44296.52734953703</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28818,10 +28064,8 @@
           <t>4392065415</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:39:09</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44296.5271875</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28893,10 +28137,8 @@
           <t>4391968485</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:38:59</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44296.52707175926</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28968,10 +28210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:38:53</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44296.52700231481</v>
       </c>
       <c r="I389" t="n">
         <v>167</v>
@@ -29035,10 +28275,8 @@
           <t>4391968485</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:38:44</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44296.52689814815</v>
       </c>
       <c r="I390" t="n">
         <v>2</v>
@@ -29114,10 +28352,8 @@
           <t>4392058486</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:38:43</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44296.52688657407</v>
       </c>
       <c r="I391" t="n">
         <v>1</v>
@@ -29193,10 +28429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:38:32</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44296.52675925926</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29268,10 +28502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:38:27</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44296.52670138889</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -29348,10 +28580,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:38:26</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44296.52668981482</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29415,10 +28645,8 @@
           <t>4391968485</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:38:11</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44296.5265162037</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29494,10 +28722,8 @@
           <t>4392039224</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:38:07</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44296.52646990741</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29565,10 +28791,8 @@
           <t>4391968485</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:38:03</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44296.52642361111</v>
       </c>
       <c r="I397" t="n">
         <v>4</v>
@@ -29632,10 +28856,8 @@
           <t>4392048896</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:37:59</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44296.52637731482</v>
       </c>
       <c r="I398" t="n">
         <v>1</v>
@@ -29707,10 +28929,8 @@
           <t>4391968485</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:37:54</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44296.52631944444</v>
       </c>
       <c r="I399" t="n">
         <v>3</v>
@@ -29778,10 +28998,8 @@
           <t>4392048539</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:37:48</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44296.52625</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29857,10 +29075,8 @@
           <t>4392056554</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:37:41</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44296.52616898148</v>
       </c>
       <c r="I401" t="n">
         <v>5</v>
@@ -29920,10 +29136,8 @@
           <t>4392052611</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:37:39</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44296.52614583333</v>
       </c>
       <c r="I402" t="n">
         <v>2</v>
@@ -29995,10 +29209,8 @@
           <t>4392056430</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:37:37</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44296.52612268519</v>
       </c>
       <c r="I403" t="n">
         <v>7</v>
@@ -30074,10 +29286,8 @@
           <t>4391921867</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:37:29</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44296.52603009259</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -30145,10 +29355,8 @@
           <t>4391916035</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:37:28</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44296.52601851852</v>
       </c>
       <c r="I405" t="n">
         <v>0</v>
@@ -30224,10 +29432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:37:10</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44296.52581018519</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30299,10 +29505,8 @@
           <t>4392051451</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:37:01</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44296.52570601852</v>
       </c>
       <c r="I407" t="n">
         <v>2</v>
@@ -30378,10 +29582,8 @@
           <t>4392055308</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:36:59</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44296.52568287037</v>
       </c>
       <c r="I408" t="n">
         <v>9</v>
@@ -30441,10 +29643,8 @@
           <t>4392038634</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:36:51</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44296.52559027778</v>
       </c>
       <c r="I409" t="n">
         <v>2</v>
@@ -30520,10 +29720,8 @@
           <t>4392045017</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:35:55</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44296.52494212963</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30595,10 +29793,8 @@
           <t>4392039224</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:35:49</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44296.52487268519</v>
       </c>
       <c r="I411" t="n">
         <v>5</v>
@@ -30666,10 +29862,8 @@
           <t>4392038836</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:35:35</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44296.52471064815</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30737,10 +29931,8 @@
           <t>4392038634</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:35:29</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44296.5246412037</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30817,10 +30009,8 @@
           <t>4392038048</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:35:10</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44296.52442129629</v>
       </c>
       <c r="I414" t="n">
         <v>2</v>
@@ -30884,10 +30074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:34:53</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44296.52422453704</v>
       </c>
       <c r="I415" t="n">
         <v>3</v>
@@ -30963,10 +30151,8 @@
           <t>4391986074</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:34:43</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44296.52410879629</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -31038,10 +30224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:34:26</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44296.52391203704</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31117,10 +30301,8 @@
           <t>4392032147</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:34:25</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44296.52390046296</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -31196,10 +30378,8 @@
           <t>4392040391</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:34:23</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44296.52387731482</v>
       </c>
       <c r="I419" t="n">
         <v>8</v>
@@ -31276,10 +30456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:34:17</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44296.52380787037</v>
       </c>
       <c r="I420" t="n">
         <v>52</v>
@@ -31353,10 +30531,8 @@
           <t>4392031053</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:33:49</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44296.5234837963</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31416,10 +30592,8 @@
           <t>4392035011</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:33:30</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44296.52326388889</v>
       </c>
       <c r="I422" t="n">
         <v>1</v>
@@ -31495,10 +30669,8 @@
           <t>4392028595</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:33:24</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44296.52319444445</v>
       </c>
       <c r="I423" t="n">
         <v>2</v>
@@ -31570,10 +30742,8 @@
           <t>4391968485</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:33:23</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44296.52318287037</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31645,10 +30815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:32:45</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44296.52274305555</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31724,10 +30892,8 @@
           <t>4392027173</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:32:38</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44296.52266203704</v>
       </c>
       <c r="I426" t="n">
         <v>1</v>
@@ -31791,10 +30957,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:32:25</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44296.52251157408</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31860,10 +31024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:32:21</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44296.52246527778</v>
       </c>
       <c r="I428" t="n">
         <v>57</v>
@@ -31931,10 +31093,8 @@
           <t>4392026613</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:32:18</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44296.52243055555</v>
       </c>
       <c r="I429" t="n">
         <v>3</v>
@@ -32002,10 +31162,8 @@
           <t>4392012477</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:32:17</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44296.52241898148</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -32069,10 +31227,8 @@
           <t>4392026577</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:32:17</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44296.52241898148</v>
       </c>
       <c r="I431" t="n">
         <v>5</v>
@@ -32144,10 +31300,8 @@
           <t>4392022725</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:32:14</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44296.52238425926</v>
       </c>
       <c r="I432" t="n">
         <v>1</v>
@@ -32219,10 +31373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:32:11</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44296.52234953704</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32299,10 +31451,8 @@
           <t>4392018100</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:32:11</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44296.52234953704</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32378,10 +31528,8 @@
           <t>4392017680</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:31:58</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44296.52219907408</v>
       </c>
       <c r="I435" t="n">
         <v>10</v>
@@ -32449,10 +31597,8 @@
           <t>4391931378</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:31:57</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44296.5221875</v>
       </c>
       <c r="I436" t="n">
         <v>2</v>
@@ -32528,10 +31674,8 @@
           <t>4392025728</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:31:49</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44296.52209490741</v>
       </c>
       <c r="I437" t="n">
         <v>1</v>
@@ -32603,10 +31747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:31:43</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44296.52202546296</v>
       </c>
       <c r="I438" t="n">
         <v>17</v>
@@ -32674,10 +31816,8 @@
           <t>4392025467</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:31:42</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44296.52201388889</v>
       </c>
       <c r="I439" t="n">
         <v>2</v>
@@ -32741,10 +31881,8 @@
           <t>4391950046</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:31:30</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44296.521875</v>
       </c>
       <c r="I440" t="n">
         <v>1</v>
@@ -32808,10 +31946,8 @@
           <t>4392021269</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:31:26</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44296.52182870371</v>
       </c>
       <c r="I441" t="n">
         <v>1</v>
@@ -32879,10 +32015,8 @@
           <t>4392020843</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:31:12</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44296.52166666667</v>
       </c>
       <c r="I442" t="n">
         <v>4</v>
@@ -32954,10 +32088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:30:54</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44296.52145833334</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -33025,10 +32157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:30:50</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44296.52141203704</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -33110,10 +32240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:30:47</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44296.52137731481</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -33177,10 +32305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:30:44</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44296.52134259259</v>
       </c>
       <c r="I446" t="n">
         <v>17</v>
@@ -33257,10 +32383,8 @@
           <t>4392009980</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:30:43</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44296.52133101852</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33324,10 +32448,8 @@
           <t>4391968485</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:30:27</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44296.52114583334</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33399,10 +32521,8 @@
           <t>4392008953</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:30:10</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44296.52094907407</v>
       </c>
       <c r="I449" t="n">
         <v>4</v>
@@ -33474,10 +32594,8 @@
           <t>4392012477</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:30:05</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44296.52089120371</v>
       </c>
       <c r="I450" t="n">
         <v>18</v>
@@ -33549,10 +32667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:29:58</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44296.52081018518</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33624,10 +32740,8 @@
           <t>4392008295</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:29:48</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44296.52069444444</v>
       </c>
       <c r="I452" t="n">
         <v>11</v>
@@ -33704,10 +32818,8 @@
           <t>4391986074</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:29:39</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44296.52059027777</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33783,10 +32895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:29:27</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44296.52045138889</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33856,10 +32966,8 @@
           <t>4392007589</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:29:26</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44296.52043981481</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33927,10 +33035,8 @@
           <t>4391968485</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:29:23</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44296.52040509259</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33990,10 +33096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:29:21</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44296.52038194444</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -34057,10 +33161,8 @@
           <t>4392006806</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:29:00</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44296.52013888889</v>
       </c>
       <c r="I458" t="n">
         <v>7</v>
@@ -34124,10 +33226,8 @@
           <t>4391921867</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:29:00</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44296.52013888889</v>
       </c>
       <c r="I459" t="n">
         <v>3</v>
@@ -34196,10 +33296,8 @@
           <t>4392010387</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:28:58</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44296.52011574074</v>
       </c>
       <c r="I460" t="n">
         <v>27</v>
@@ -34279,10 +33377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:28:47</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44296.51998842593</v>
       </c>
       <c r="I461" t="n">
         <v>13</v>
@@ -34346,10 +33442,8 @@
           <t>4392001889</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:28:46</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44296.51997685185</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34425,10 +33519,8 @@
           <t>4391968485</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:28:42</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44296.51993055556</v>
       </c>
       <c r="I463" t="n">
         <v>4</v>
@@ -34496,10 +33588,8 @@
           <t>4391999575</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:28:33</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44296.51982638889</v>
       </c>
       <c r="I464" t="n">
         <v>22</v>
@@ -34559,10 +33649,8 @@
           <t>4392005737</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:28:24</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44296.51972222222</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34639,10 +33727,8 @@
           <t>4392005694</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:28:22</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44296.51969907407</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34718,10 +33804,8 @@
           <t>4391998987</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:28:13</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44296.5195949074</v>
       </c>
       <c r="I467" t="n">
         <v>3</v>
@@ -34789,10 +33873,8 @@
           <t>4392000396</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:27:58</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44296.5194212963</v>
       </c>
       <c r="I468" t="n">
         <v>18</v>
@@ -34864,10 +33946,8 @@
           <t>4391994732</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:27:50</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44296.5193287037</v>
       </c>
       <c r="I469" t="n">
         <v>23</v>
@@ -34943,10 +34023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:27:42</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44296.51923611111</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -35014,10 +34092,8 @@
           <t>4391997983</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:27:40</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44296.51921296296</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35085,10 +34161,8 @@
           <t>4391921867</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:27:34</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44296.51914351852</v>
       </c>
       <c r="I472" t="n">
         <v>11</v>
@@ -35156,10 +34230,8 @@
           <t>4391865946</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:27:34</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44296.51914351852</v>
       </c>
       <c r="I473" t="n">
         <v>1</v>
@@ -35235,10 +34307,8 @@
           <t>4391968485</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:27:30</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44296.51909722222</v>
       </c>
       <c r="I474" t="n">
         <v>10</v>
@@ -35314,10 +34384,8 @@
           <t>4391997638</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:27:28</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44296.51907407407</v>
       </c>
       <c r="I475" t="n">
         <v>8</v>
@@ -35381,10 +34449,8 @@
           <t>4391950046</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:26:45</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44296.51857638889</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35452,10 +34518,8 @@
           <t>4391995931</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:26:33</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44296.5184375</v>
       </c>
       <c r="I477" t="n">
         <v>75</v>
@@ -35531,10 +34595,8 @@
           <t>4391987515</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:26:23</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44296.51832175926</v>
       </c>
       <c r="I478" t="n">
         <v>77</v>
@@ -35602,10 +34664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:26:09</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44296.51815972223</v>
       </c>
       <c r="I479" t="n">
         <v>12</v>
@@ -35677,10 +34737,8 @@
           <t>4391921867</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:25:44</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44296.51787037037</v>
       </c>
       <c r="I480" t="n">
         <v>42</v>
@@ -35748,10 +34806,8 @@
           <t>4391986074</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:25:37</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44296.51778935185</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35823,10 +34879,8 @@
           <t>4391891054</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:25:25</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44296.51765046296</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35894,10 +34948,8 @@
           <t>4391974840</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:24:57</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44296.51732638889</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35973,10 +35025,8 @@
           <t>4391979509</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:24:56</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44296.51731481482</v>
       </c>
       <c r="I484" t="n">
         <v>36</v>
@@ -36052,10 +35102,8 @@
           <t>4391891054</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:24:54</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44296.51729166666</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -36123,10 +35171,8 @@
           <t>4391974680</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:24:52</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44296.51726851852</v>
       </c>
       <c r="I486" t="n">
         <v>30</v>
@@ -36202,10 +35248,8 @@
           <t>4391888676</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:24:38</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44296.51710648148</v>
       </c>
       <c r="I487" t="n">
         <v>8</v>
@@ -36281,10 +35325,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:24:35</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44296.51707175926</v>
       </c>
       <c r="I488" t="n">
         <v>42</v>
@@ -36348,10 +35390,8 @@
           <t>4391982122</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:24:32</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44296.51703703704</v>
       </c>
       <c r="I489" t="n">
         <v>17</v>
@@ -36427,10 +35467,8 @@
           <t>4391968485</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:24:31</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44296.51702546296</v>
       </c>
       <c r="I490" t="n">
         <v>10</v>
@@ -36510,10 +35548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:24:28</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44296.51699074074</v>
       </c>
       <c r="I491" t="n">
         <v>5</v>
@@ -36577,10 +35613,8 @@
           <t>4391973211</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:24:04</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44296.51671296296</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36656,10 +35690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:23:56</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44296.51662037037</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36727,10 +35759,8 @@
           <t>4391971833</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:23:51</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44296.5165625</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36794,10 +35824,8 @@
           <t>4391972103</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:23:27</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44296.51628472222</v>
       </c>
       <c r="I495" t="n">
         <v>1</v>
@@ -36865,10 +35893,8 @@
           <t>4391971833</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:23:18</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44296.51618055555</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36940,10 +35966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:23:12</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44296.51611111111</v>
       </c>
       <c r="I497" t="n">
         <v>3</v>
@@ -37007,10 +36031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:23:08</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44296.51606481482</v>
       </c>
       <c r="I498" t="n">
         <v>25</v>
@@ -37086,10 +36108,8 @@
           <t>4391968485</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:22:38</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44296.51571759259</v>
       </c>
       <c r="I499" t="n">
         <v>5</v>
@@ -37166,10 +36186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:22:28</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44296.51560185185</v>
       </c>
       <c r="I500" t="n">
         <v>30</v>
@@ -37233,10 +36251,8 @@
           <t>4391964714</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:22:19</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44296.51549768518</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -37308,10 +36324,8 @@
           <t>4391967496</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:22:06</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44296.51534722222</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -37379,10 +36393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:21:57</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44296.51524305555</v>
       </c>
       <c r="I503" t="n">
         <v>1</v>
@@ -37444,10 +36456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:21:45</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44296.51510416667</v>
       </c>
       <c r="I504" t="n">
         <v>3</v>
@@ -37507,10 +36517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:21:45</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44296.51510416667</v>
       </c>
       <c r="I505" t="n">
         <v>62</v>
@@ -37586,10 +36594,8 @@
           <t>4391963495</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:21:39</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44296.51503472222</v>
       </c>
       <c r="I506" t="n">
         <v>1</v>
@@ -37653,10 +36659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:21:30</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44296.51493055555</v>
       </c>
       <c r="I507" t="n">
         <v>1</v>
@@ -37728,10 +36732,8 @@
           <t>4391965303</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:20:56</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44296.51453703704</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37807,10 +36809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:20:40</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44296.51435185185</v>
       </c>
       <c r="I509" t="n">
         <v>54</v>
@@ -37878,10 +36878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:20:06</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44296.51395833334</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37945,10 +36943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:20:03</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44296.51392361111</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -38024,10 +37020,8 @@
           <t>4391944623</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:19:26</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44296.51349537037</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -38103,10 +37097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:19:17</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44296.51339120371</v>
       </c>
       <c r="I513" t="n">
         <v>7</v>
@@ -38182,10 +37174,8 @@
           <t>4391944265</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:19:14</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44296.51335648148</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -38249,10 +37239,8 @@
           <t>4391869676</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:19:10</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44296.51331018518</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -38324,10 +37312,8 @@
           <t>4391869676</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:19:01</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44296.51320601852</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -38399,10 +37385,8 @@
           <t>4391947935</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:18:34</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44296.51289351852</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38478,10 +37462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:18:18</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44296.51270833334</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -38557,10 +37539,8 @@
           <t>4391942558</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:18:18</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44296.51270833334</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38628,10 +37608,8 @@
           <t>4391950046</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:18:07</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44296.51258101852</v>
       </c>
       <c r="I520" t="n">
         <v>1</v>
@@ -38695,10 +37673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:18:03</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44296.51253472222</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38767,10 +37743,8 @@
           <t>4391942022</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:18:01</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44296.51251157407</v>
       </c>
       <c r="I522" t="n">
         <v>8</v>
@@ -38838,10 +37812,8 @@
           <t>4391941733</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:17:51</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44296.51239583334</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38917,10 +37889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:17:10</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44296.5119212963</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38996,10 +37966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:17:08</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44296.51189814815</v>
       </c>
       <c r="I525" t="n">
         <v>53</v>
@@ -39063,10 +38031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:17:07</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44296.51188657407</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -39134,10 +38100,8 @@
           <t>4391891054</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:16:54</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44296.51173611111</v>
       </c>
       <c r="I527" t="n">
         <v>4</v>
@@ -39209,10 +38173,8 @@
           <t>4391934130</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:16:30</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44296.51145833333</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39288,10 +38250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:16:28</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44296.51143518519</v>
       </c>
       <c r="I529" t="n">
         <v>65</v>
@@ -39367,10 +38327,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:16:24</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44296.51138888889</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39446,10 +38404,8 @@
           <t>4391929030</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:16:22</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44296.51136574074</v>
       </c>
       <c r="I531" t="n">
         <v>5</v>
@@ -39521,10 +38477,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:16:15</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44296.51128472222</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39592,10 +38546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:16:11</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44296.51123842593</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39663,10 +38615,8 @@
           <t>4391927206</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:15:21</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44296.51065972223</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39742,10 +38692,8 @@
           <t>4391888676</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:15:18</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44296.510625</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39813,10 +38761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:15:17</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44296.51061342593</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39889,10 +38835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:15:12</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44296.51055555556</v>
       </c>
       <c r="I537" t="n">
         <v>1</v>
@@ -39968,10 +38912,8 @@
           <t>4391926877</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:15:10</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44296.51053240741</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -40039,10 +38981,8 @@
           <t>4391924306</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:15:01</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44296.51042824074</v>
       </c>
       <c r="I539" t="n">
         <v>2</v>
@@ -40114,10 +39054,8 @@
           <t>4391931378</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:14:59</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44296.51040509259</v>
       </c>
       <c r="I540" t="n">
         <v>12</v>
@@ -40185,10 +39123,8 @@
           <t>4391891054</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:14:43</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44296.51021990741</v>
       </c>
       <c r="I541" t="n">
         <v>1</v>
@@ -40264,10 +39200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:14:19</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44296.50994212963</v>
       </c>
       <c r="I542" t="n">
         <v>329</v>
@@ -40343,10 +39277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:14:15</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44296.50989583333</v>
       </c>
       <c r="I543" t="n">
         <v>3</v>
@@ -40418,10 +39350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:13:43</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44296.50952546296</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40497,10 +39427,8 @@
           <t>4391921867</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:13:43</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44296.50952546296</v>
       </c>
       <c r="I545" t="n">
         <v>72</v>
@@ -40576,10 +39504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:13:41</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44296.50950231482</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40647,10 +39573,8 @@
           <t>4391878771</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:13:38</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44296.50946759259</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40726,10 +39650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:12:56</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44296.50898148148</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40797,10 +39719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:12:56</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44296.50898148148</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40864,10 +39784,8 @@
           <t>4391912640</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:12:51</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44296.50892361111</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40935,10 +39853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:12:50</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44296.50891203704</v>
       </c>
       <c r="I551" t="n">
         <v>0</v>
@@ -41010,10 +39926,8 @@
           <t>4391917471</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:12:48</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44296.50888888889</v>
       </c>
       <c r="I552" t="n">
         <v>0</v>
@@ -41081,10 +39995,8 @@
           <t>4391909686</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:12:32</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44296.5087037037</v>
       </c>
       <c r="I553" t="n">
         <v>1</v>
@@ -41152,10 +40064,8 @@
           <t>4391911796</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:12:23</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44296.50859953704</v>
       </c>
       <c r="I554" t="n">
         <v>6</v>
@@ -41230,10 +40140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:12:21</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44296.50857638889</v>
       </c>
       <c r="I555" t="n">
         <v>0</v>
@@ -41301,10 +40209,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:12:14</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44296.50849537037</v>
       </c>
       <c r="I556" t="n">
         <v>1</v>
@@ -41380,10 +40286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:12:14</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44296.50849537037</v>
       </c>
       <c r="I557" t="n">
         <v>0</v>
@@ -41447,10 +40351,8 @@
           <t>4391916035</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:12:00</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44296.50833333333</v>
       </c>
       <c r="I558" t="n">
         <v>7</v>
@@ -41514,10 +40416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:11:57</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44296.50829861111</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41589,10 +40489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:11:54</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44296.50826388889</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41668,10 +40566,8 @@
           <t>4391915677</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:11:49</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44296.50820601852</v>
       </c>
       <c r="I561" t="n">
         <v>2</v>
@@ -41747,10 +40643,8 @@
           <t>4391910247</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:11:33</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44296.50802083333</v>
       </c>
       <c r="I562" t="n">
         <v>2</v>
@@ -41833,10 +40727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:11:27</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44296.50795138889</v>
       </c>
       <c r="I563" t="n">
         <v>1</v>
@@ -41904,10 +40796,8 @@
           <t>4391899956</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:11:23</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44296.50790509259</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41975,10 +40865,8 @@
           <t>4391888676</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:11:14</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44296.50780092592</v>
       </c>
       <c r="I565" t="n">
         <v>18</v>
@@ -42050,10 +40938,8 @@
           <t>4391869676</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:10:40</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44296.50740740741</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -42117,10 +41003,8 @@
           <t>4391903419</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:10:33</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44296.50732638889</v>
       </c>
       <c r="I567" t="n">
         <v>14</v>
@@ -42188,10 +41072,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:10:10</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44296.50706018518</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -42260,10 +41142,8 @@
           <t>4391905434</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:10:10</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44296.50706018518</v>
       </c>
       <c r="I569" t="n">
         <v>9</v>
@@ -42339,10 +41219,8 @@
           <t>4391905340</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:10:07</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44296.50702546296</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42410,10 +41288,8 @@
           <t>4391902064</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:09:45</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44296.50677083333</v>
       </c>
       <c r="I571" t="n">
         <v>27</v>
@@ -42485,10 +41361,8 @@
           <t>4391897050</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:09:42</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44296.50673611111</v>
       </c>
       <c r="I572" t="n">
         <v>5</v>
@@ -42556,10 +41430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:09:28</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44296.50657407408</v>
       </c>
       <c r="I573" t="n">
         <v>17</v>
@@ -42627,10 +41499,8 @@
           <t>4391891054</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:09:28</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44296.50657407408</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42698,10 +41568,8 @@
           <t>4391896586</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:09:27</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44296.5065625</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42769,10 +41637,8 @@
           <t>4391869676</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:09:21</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44296.50649305555</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42840,10 +41706,8 @@
           <t>4391896157</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:09:12</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44296.50638888889</v>
       </c>
       <c r="I577" t="n">
         <v>4</v>
@@ -42907,10 +41771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:09:06</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44296.50631944444</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42978,10 +41840,8 @@
           <t>4391893477</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:09:06</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44296.50631944444</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -43049,10 +41909,8 @@
           <t>4391895933</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:09:05</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44296.50630787037</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
@@ -43116,10 +41974,8 @@
           <t>4391895891</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:09:03</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44296.50628472222</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -43191,10 +42047,8 @@
           <t>4391895645</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:08:55</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44296.50619212963</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -43266,10 +42120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:08:46</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44296.50608796296</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -43337,10 +42189,8 @@
           <t>4391895079</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:08:37</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44296.5059837963</v>
       </c>
       <c r="I584" t="n">
         <v>0</v>
@@ -43412,10 +42262,8 @@
           <t>4391895030</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:08:35</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44296.50596064814</v>
       </c>
       <c r="I585" t="n">
         <v>2</v>
@@ -43491,10 +42339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:08:28</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44296.50587962963</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43562,10 +42408,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:08:27</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44296.50586805555</v>
       </c>
       <c r="I587" t="n">
         <v>4</v>
@@ -43637,10 +42481,8 @@
           <t>4391892320</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:08:27</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44296.50586805555</v>
       </c>
       <c r="I588" t="n">
         <v>1</v>
@@ -43700,10 +42542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:08:26</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44296.50585648148</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43780,10 +42620,8 @@
           <t>4391892174</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:08:23</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44296.50582175926</v>
       </c>
       <c r="I590" t="n">
         <v>1</v>
@@ -43851,10 +42689,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:08:18</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44296.50576388889</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
@@ -43926,10 +42762,8 @@
           <t>4391889523</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:08:18</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44296.50576388889</v>
       </c>
       <c r="I592" t="n">
         <v>1</v>
@@ -43993,10 +42827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:08:13</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44296.50570601852</v>
       </c>
       <c r="I593" t="n">
         <v>1</v>
@@ -44068,10 +42900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:08:13</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44296.50570601852</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -44143,10 +42973,8 @@
           <t>4391888666</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:08:10</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44296.5056712963</v>
       </c>
       <c r="I595" t="n">
         <v>2</v>
@@ -44214,10 +43042,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:08:09</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44296.50565972222</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -44289,10 +43115,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:07:54</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44296.50548611111</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
@@ -44360,10 +43184,8 @@
           <t>4391883709</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:07:53</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44296.50547453704</v>
       </c>
       <c r="I598" t="n">
         <v>2</v>
@@ -44439,10 +43261,8 @@
           <t>4391864257</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:07:51</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44296.50545138889</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44506,10 +43326,8 @@
           <t>4391888676</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:07:50</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44296.50543981481</v>
       </c>
       <c r="I600" t="n">
         <v>7</v>
@@ -44585,10 +43403,8 @@
           <t>4391888666</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:07:49</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44296.50542824074</v>
       </c>
       <c r="I601" t="n">
         <v>3</v>
@@ -44664,10 +43480,8 @@
           <t>4391891054</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:07:46</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44296.50539351852</v>
       </c>
       <c r="I602" t="n">
         <v>5</v>
@@ -44739,10 +43553,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:07:33</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44296.50524305556</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44806,10 +43618,8 @@
           <t>4391858287</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:07:11</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44296.50498842593</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44873,10 +43683,8 @@
           <t>4391886076</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:07:09</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44296.50496527777</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44944,10 +43752,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:07:02</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44296.50488425926</v>
       </c>
       <c r="I606" t="n">
         <v>555</v>
@@ -45023,10 +43829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:06:35</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44296.50457175926</v>
       </c>
       <c r="I607" t="n">
         <v>1</v>
@@ -45094,10 +43898,8 @@
           <t>4391878771</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:06:30</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44296.50451388889</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -45173,10 +43975,8 @@
           <t>4391886076</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:06:26</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44296.50446759259</v>
       </c>
       <c r="I609" t="n">
         <v>0</v>
@@ -45240,10 +44040,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:06:23</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44296.50443287037</v>
       </c>
       <c r="I610" t="n">
         <v>37</v>
@@ -45318,10 +44116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:06:10</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44296.5042824074</v>
       </c>
       <c r="I611" t="n">
         <v>2</v>
@@ -45393,10 +44189,8 @@
           <t>4391878050</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:06:07</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44296.50424768519</v>
       </c>
       <c r="I612" t="n">
         <v>30</v>
@@ -45468,10 +44262,8 @@
           <t>4391885391</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:06:03</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44296.50420138889</v>
       </c>
       <c r="I613" t="n">
         <v>2</v>
@@ -45547,10 +44339,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:05:51</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44296.5040625</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -45626,10 +44416,8 @@
           <t>4391880051</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:05:50</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44296.50405092593</v>
       </c>
       <c r="I615" t="n">
         <v>1</v>
@@ -45697,10 +44485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:05:41</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44296.50394675926</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45776,10 +44562,8 @@
           <t>4391869676</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:05:37</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44296.50390046297</v>
       </c>
       <c r="I617" t="n">
         <v>5</v>
@@ -45851,10 +44635,8 @@
           <t>4391869521</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:05:32</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44296.5038425926</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45914,10 +44696,8 @@
           <t>4391874344</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:05:29</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44296.50380787037</v>
       </c>
       <c r="I619" t="n">
         <v>5</v>
@@ -45985,10 +44765,8 @@
           <t>4391852701</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:05:26</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44296.50377314815</v>
       </c>
       <c r="I620" t="n">
         <v>4</v>
@@ -46058,10 +44836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:05:20</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44296.5037037037</v>
       </c>
       <c r="I621" t="n">
         <v>1</v>
@@ -46129,10 +44905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:05:20</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44296.5037037037</v>
       </c>
       <c r="I622" t="n">
         <v>1</v>
@@ -46196,10 +44970,8 @@
           <t>4391874046</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:05:19</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44296.50369212963</v>
       </c>
       <c r="I623" t="n">
         <v>45</v>
@@ -46271,10 +45043,8 @@
           <t>4391864257</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:05:19</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44296.50369212963</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -46342,10 +45112,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:05:09</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44296.50357638889</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -46421,10 +45189,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:04:49</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44296.50334490741</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -46488,10 +45254,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:04:43</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44296.50327546296</v>
       </c>
       <c r="I627" t="n">
         <v>0</v>
@@ -46567,10 +45331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:04:42</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44296.50326388889</v>
       </c>
       <c r="I628" t="n">
         <v>1</v>
@@ -46638,10 +45400,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:04:29</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44296.50311342593</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -46713,10 +45473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:04:20</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44296.50300925926</v>
       </c>
       <c r="I630" t="n">
         <v>12</v>
@@ -46792,10 +45550,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:04:19</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44296.50299768519</v>
       </c>
       <c r="I631" t="n">
         <v>24</v>
@@ -46864,10 +45620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:04:10</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44296.50289351852</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
@@ -46943,10 +45697,8 @@
           <t>4391852701</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:04:10</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44296.50289351852</v>
       </c>
       <c r="I633" t="n">
         <v>11</v>
@@ -47014,10 +45766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:04:05</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44296.50283564815</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -47085,10 +45835,8 @@
           <t>4391864257</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:04:05</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44296.50283564815</v>
       </c>
       <c r="I635" t="n">
         <v>0</v>
@@ -47160,10 +45908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:04:02</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44296.50280092593</v>
       </c>
       <c r="I636" t="n">
         <v>1</v>
@@ -47237,10 +45983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:03:39</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44296.50253472223</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -47312,10 +46056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:03:39</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44296.50253472223</v>
       </c>
       <c r="I638" t="n">
         <v>1</v>
@@ -47375,10 +46117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:03:38</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44296.50252314815</v>
       </c>
       <c r="I639" t="n">
         <v>4</v>
@@ -47446,10 +46186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:03:31</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44296.50244212963</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -47517,10 +46255,8 @@
           <t>4391865946</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:03:31</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44296.50244212963</v>
       </c>
       <c r="I641" t="n">
         <v>8</v>
@@ -47596,10 +46332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:03:30</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44296.50243055556</v>
       </c>
       <c r="I642" t="n">
         <v>1</v>
@@ -47675,10 +46409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:03:27</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44296.50239583333</v>
       </c>
       <c r="I643" t="n">
         <v>42</v>
@@ -47742,10 +46474,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:03:10</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44296.50219907407</v>
       </c>
       <c r="I644" t="n">
         <v>390</v>
@@ -47809,10 +46539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:03:05</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44296.5021412037</v>
       </c>
       <c r="I645" t="n">
         <v>4</v>
@@ -47887,10 +46615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:03:01</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44296.50209490741</v>
       </c>
       <c r="I646" t="n">
         <v>71</v>
@@ -47958,10 +46684,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:02:59</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44296.50207175926</v>
       </c>
       <c r="I647" t="n">
         <v>3</v>
@@ -48037,10 +46761,8 @@
           <t>4391854845</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:02:55</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44296.50202546296</v>
       </c>
       <c r="I648" t="n">
         <v>5</v>
@@ -48108,10 +46830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:02:46</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44296.50192129629</v>
       </c>
       <c r="I649" t="n">
         <v>41</v>
@@ -48179,10 +46899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:02:36</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44296.50180555556</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -48258,10 +46976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:02:35</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44296.50179398148</v>
       </c>
       <c r="I651" t="n">
         <v>3</v>
@@ -48337,10 +47053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:02:33</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44296.50177083333</v>
       </c>
       <c r="I652" t="n">
         <v>2</v>
@@ -48412,10 +47126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:02:33</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44296.50177083333</v>
       </c>
       <c r="I653" t="n">
         <v>2</v>
@@ -48479,10 +47191,8 @@
           <t>4391854157</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:02:33</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44296.50177083333</v>
       </c>
       <c r="I654" t="n">
         <v>4</v>
@@ -48550,10 +47260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:02:32</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44296.50175925926</v>
       </c>
       <c r="I655" t="n">
         <v>0</v>
@@ -48626,10 +47334,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:02:31</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44296.50174768519</v>
       </c>
       <c r="I656" t="n">
         <v>3</v>
@@ -48705,10 +47411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:02:31</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44296.50174768519</v>
       </c>
       <c r="I657" t="n">
         <v>1</v>
@@ -48779,10 +47483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:02:22</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44296.50164351852</v>
       </c>
       <c r="I658" t="n">
         <v>347</v>
@@ -48858,10 +47560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:02:19</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44296.50160879629</v>
       </c>
       <c r="I659" t="n">
         <v>105</v>
@@ -48933,10 +47633,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:02:12</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44296.50152777778</v>
       </c>
       <c r="I660" t="n">
         <v>7</v>
@@ -48996,10 +47694,8 @@
           <t>4391858287</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:02:11</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44296.5015162037</v>
       </c>
       <c r="I661" t="n">
         <v>5</v>
@@ -49067,10 +47763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:02:05</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44296.50144675926</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
@@ -49141,10 +47835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:02:03</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44296.50142361111</v>
       </c>
       <c r="I663" t="n">
         <v>3</v>
@@ -49220,10 +47912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:01:54</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44296.50131944445</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
@@ -49299,10 +47989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:01:54</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44296.50131944445</v>
       </c>
       <c r="I665" t="n">
         <v>6</v>
@@ -49374,10 +48062,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:01:49</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44296.50126157407</v>
       </c>
       <c r="I666" t="n">
         <v>14</v>
@@ -49453,10 +48139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:01:41</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44296.50116898148</v>
       </c>
       <c r="I667" t="n">
         <v>24</v>
@@ -49524,10 +48208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:01:41</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44296.50116898148</v>
       </c>
       <c r="I668" t="n">
         <v>1</v>
@@ -49599,10 +48281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:01:39</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44296.50114583333</v>
       </c>
       <c r="I669" t="n">
         <v>2</v>
@@ -49678,10 +48358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:01:36</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44296.50111111111</v>
       </c>
       <c r="I670" t="n">
         <v>1</v>
@@ -49757,10 +48435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:01:34</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44296.50108796296</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -49828,10 +48504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:01:31</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44296.50105324074</v>
       </c>
       <c r="I672" t="n">
         <v>0</v>
@@ -49899,10 +48573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:01:22</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44296.50094907408</v>
       </c>
       <c r="I673" t="n">
         <v>7</v>
@@ -49974,10 +48646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:01:21</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44296.5009375</v>
       </c>
       <c r="I674" t="n">
         <v>33</v>
@@ -50049,10 +48719,8 @@
           <t>4391856649</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:01:21</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44296.5009375</v>
       </c>
       <c r="I675" t="n">
         <v>1</v>
@@ -50120,10 +48788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:01:19</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44296.50091435185</v>
       </c>
       <c r="I676" t="n">
         <v>40</v>
@@ -50191,10 +48857,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:01:16</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44296.50087962963</v>
       </c>
       <c r="I677" t="n">
         <v>17</v>
@@ -50258,10 +48922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:01:14</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44296.50085648148</v>
       </c>
       <c r="I678" t="n">
         <v>1</v>
@@ -50325,10 +48987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:01:09</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44296.50079861111</v>
       </c>
       <c r="I679" t="n">
         <v>0</v>
@@ -50396,10 +49056,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:01:07</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44296.50077546296</v>
       </c>
       <c r="I680" t="n">
         <v>5</v>
@@ -50475,10 +49133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:01:05</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44296.50075231482</v>
       </c>
       <c r="I681" t="n">
         <v>0</v>
@@ -50546,10 +49202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:01:01</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44296.50070601852</v>
       </c>
       <c r="I682" t="n">
         <v>2</v>
@@ -50609,10 +49263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:01:01</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44296.50070601852</v>
       </c>
       <c r="I683" t="n">
         <v>130</v>
@@ -50680,10 +49332,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:00:53</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44296.50061342592</v>
       </c>
       <c r="I684" t="n">
         <v>79</v>
@@ -50751,10 +49401,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:00:51</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44296.50059027778</v>
       </c>
       <c r="I685" t="n">
         <v>0</v>
@@ -50814,10 +49462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:00:51</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44296.50059027778</v>
       </c>
       <c r="I686" t="n">
         <v>5</v>
@@ -50893,10 +49539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:00:49</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44296.50056712963</v>
       </c>
       <c r="I687" t="n">
         <v>9</v>
@@ -50972,10 +49616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:00:44</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44296.50050925926</v>
       </c>
       <c r="I688" t="n">
         <v>16</v>
@@ -51043,10 +49685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:00:31</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44296.50035879629</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
@@ -51126,10 +49766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:00:29</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44296.50033564815</v>
       </c>
       <c r="I690" t="n">
         <v>20</v>
@@ -51206,10 +49844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:00:23</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44296.5002662037</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
@@ -51273,10 +49909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2021-04-10 12:00:23</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44296.5002662037</v>
       </c>
       <c r="I692" t="n">
         <v>1</v>
